--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H2">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N2">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q2">
-        <v>719.3907495257361</v>
+        <v>789.174026313431</v>
       </c>
       <c r="R2">
-        <v>719.3907495257361</v>
+        <v>7102.56623682088</v>
       </c>
       <c r="S2">
-        <v>0.5053026046898546</v>
+        <v>0.5005463564075517</v>
       </c>
       <c r="T2">
-        <v>0.5053026046898546</v>
+        <v>0.5005463564075516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H3">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N3">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q3">
-        <v>0.9278471580414701</v>
+        <v>1.264227278315222</v>
       </c>
       <c r="R3">
-        <v>0.9278471580414701</v>
+        <v>11.378045504837</v>
       </c>
       <c r="S3">
-        <v>0.0006517231226861379</v>
+        <v>0.0008018565446050219</v>
       </c>
       <c r="T3">
-        <v>0.0006517231226861379</v>
+        <v>0.0008018565446050218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H4">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I4">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J4">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N4">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q4">
-        <v>21.56310510105919</v>
+        <v>25.40540637285934</v>
       </c>
       <c r="R4">
-        <v>21.56310510105919</v>
+        <v>228.648657355734</v>
       </c>
       <c r="S4">
-        <v>0.01514600122388216</v>
+        <v>0.01611378880827152</v>
       </c>
       <c r="T4">
-        <v>0.01514600122388216</v>
+        <v>0.01611378880827151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H5">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I5">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J5">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N5">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q5">
-        <v>11.135119303558</v>
+        <v>14.06025090653944</v>
       </c>
       <c r="R5">
-        <v>11.135119303558</v>
+        <v>126.542258158855</v>
       </c>
       <c r="S5">
-        <v>0.007821347148722057</v>
+        <v>0.008917940944307177</v>
       </c>
       <c r="T5">
-        <v>0.007821347148722057</v>
+        <v>0.008917940944307173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H6">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I6">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J6">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N6">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P6">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q6">
-        <v>0.5238459213058304</v>
+        <v>0.737346403611889</v>
       </c>
       <c r="R6">
-        <v>0.5238459213058304</v>
+        <v>6.636117632507</v>
       </c>
       <c r="S6">
-        <v>0.0003679512263210205</v>
+        <v>0.0004676738506742993</v>
       </c>
       <c r="T6">
-        <v>0.0003679512263210205</v>
+        <v>0.0004676738506742991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H7">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I7">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J7">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N7">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q7">
-        <v>539.8303049112525</v>
+        <v>565.704206934646</v>
       </c>
       <c r="R7">
-        <v>539.8303049112525</v>
+        <v>5091.337862411814</v>
       </c>
       <c r="S7">
-        <v>0.3791787138519714</v>
+        <v>0.3588070186601649</v>
       </c>
       <c r="T7">
-        <v>0.3791787138519714</v>
+        <v>0.3588070186601648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H8">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I8">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J8">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N8">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q8">
-        <v>0.6962558450560768</v>
+        <v>0.9062369845157777</v>
       </c>
       <c r="R8">
-        <v>0.6962558450560768</v>
+        <v>8.156132860642</v>
       </c>
       <c r="S8">
-        <v>0.0004890525660349559</v>
+        <v>0.0005747954259976883</v>
       </c>
       <c r="T8">
-        <v>0.0004890525660349559</v>
+        <v>0.0005747954259976882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H9">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I9">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J9">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N9">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q9">
-        <v>16.18093867513893</v>
+        <v>18.21137643258267</v>
       </c>
       <c r="R9">
-        <v>16.18093867513893</v>
+        <v>163.902387893244</v>
       </c>
       <c r="S9">
-        <v>0.01136554850651719</v>
+        <v>0.01155085927127968</v>
       </c>
       <c r="T9">
-        <v>0.01136554850651719</v>
+        <v>0.01155085927127968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H10">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I10">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J10">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N10">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q10">
-        <v>8.355785576650435</v>
+        <v>10.07882016282555</v>
       </c>
       <c r="R10">
-        <v>8.355785576650435</v>
+        <v>90.70938146543</v>
       </c>
       <c r="S10">
-        <v>0.005869133317178323</v>
+        <v>0.006392654270384772</v>
       </c>
       <c r="T10">
-        <v>0.005869133317178323</v>
+        <v>0.00639265427038477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H11">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I11">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J11">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N11">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O11">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P11">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q11">
-        <v>0.393093605403562</v>
+        <v>0.5285525734291111</v>
       </c>
       <c r="R11">
-        <v>0.393093605403562</v>
+        <v>4.756973160862001</v>
       </c>
       <c r="S11">
-        <v>0.0002761103375714727</v>
+        <v>0.0003352429958138295</v>
       </c>
       <c r="T11">
-        <v>0.0002761103375714727</v>
+        <v>0.0003352429958138294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H12">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I12">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J12">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N12">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q12">
-        <v>99.94170309516832</v>
+        <v>6.319790851847999</v>
       </c>
       <c r="R12">
-        <v>99.94170309516832</v>
+        <v>56.878117666632</v>
       </c>
       <c r="S12">
-        <v>0.07019940543358627</v>
+        <v>0.004008429292747564</v>
       </c>
       <c r="T12">
-        <v>0.07019940543358627</v>
+        <v>0.004008429292747563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H13">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I13">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J13">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N13">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q13">
-        <v>0.128901609101604</v>
+        <v>0.01012406861066667</v>
       </c>
       <c r="R13">
-        <v>0.128901609101604</v>
+        <v>0.091116617496</v>
       </c>
       <c r="S13">
-        <v>9.054094575263063E-05</v>
+        <v>6.421353828333693E-06</v>
       </c>
       <c r="T13">
-        <v>9.054094575263063E-05</v>
+        <v>6.421353828333691E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H14">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I14">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J14">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N14">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q14">
-        <v>2.995664663801561</v>
+        <v>0.203449238608</v>
       </c>
       <c r="R14">
-        <v>2.995664663801561</v>
+        <v>1.831043147472</v>
       </c>
       <c r="S14">
-        <v>0.002104165446100351</v>
+        <v>0.0001290409614402078</v>
       </c>
       <c r="T14">
-        <v>0.002104165446100351</v>
+        <v>0.0001290409614402078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H15">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I15">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J15">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N15">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q15">
-        <v>1.546951761749974</v>
+        <v>0.1125960080933333</v>
       </c>
       <c r="R15">
-        <v>1.546951761749974</v>
+        <v>1.01336407284</v>
       </c>
       <c r="S15">
-        <v>0.001086584384157218</v>
+        <v>7.141583442682801E-05</v>
       </c>
       <c r="T15">
-        <v>0.001086584384157218</v>
+        <v>7.141583442682799E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.044456</v>
+      </c>
+      <c r="H16">
+        <v>0.133368</v>
+      </c>
+      <c r="I16">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J16">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.398467</v>
+      </c>
+      <c r="O16">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P16">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q16">
+        <v>0.005904749650666666</v>
+      </c>
+      <c r="R16">
+        <v>0.053142746856</v>
+      </c>
+      <c r="S16">
+        <v>3.745182715841319E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.745182715841317E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.885213</v>
+      </c>
+      <c r="I17">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J17">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>142.158333</v>
+      </c>
+      <c r="N17">
+        <v>426.474999</v>
+      </c>
+      <c r="O17">
+        <v>0.9500780504241082</v>
+      </c>
+      <c r="P17">
+        <v>0.9500780504241081</v>
+      </c>
+      <c r="Q17">
+        <v>136.719023476643</v>
+      </c>
+      <c r="R17">
+        <v>1230.471211289787</v>
+      </c>
+      <c r="S17">
+        <v>0.08671624606364405</v>
+      </c>
+      <c r="T17">
+        <v>0.08671624606364405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.885213</v>
+      </c>
+      <c r="I18">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J18">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2277323333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.6831970000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="P18">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="Q18">
+        <v>0.2190187628845556</v>
+      </c>
+      <c r="R18">
+        <v>1.971168865961</v>
+      </c>
+      <c r="S18">
+        <v>0.000138916183365636</v>
+      </c>
+      <c r="T18">
+        <v>0.000138916183365636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="H16">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="I16">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="J16">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.09900100675710451</v>
-      </c>
-      <c r="N16">
-        <v>0.09900100675710451</v>
-      </c>
-      <c r="O16">
-        <v>0.0006951793635566143</v>
-      </c>
-      <c r="P16">
-        <v>0.0006951793635566143</v>
-      </c>
-      <c r="Q16">
-        <v>0.0727755445413734</v>
-      </c>
-      <c r="R16">
-        <v>0.0727755445413734</v>
-      </c>
-      <c r="S16">
-        <v>5.111779966412111E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.111779966412111E-05</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.885213</v>
+      </c>
+      <c r="I19">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J19">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.576418</v>
+      </c>
+      <c r="N19">
+        <v>13.729254</v>
+      </c>
+      <c r="O19">
+        <v>0.03058529317001626</v>
+      </c>
+      <c r="P19">
+        <v>0.03058529317001625</v>
+      </c>
+      <c r="Q19">
+        <v>4.401313569011334</v>
+      </c>
+      <c r="R19">
+        <v>39.61182212110201</v>
+      </c>
+      <c r="S19">
+        <v>0.002791604129024852</v>
+      </c>
+      <c r="T19">
+        <v>0.002791604129024851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.885213</v>
+      </c>
+      <c r="I20">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J20">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.532751666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.598255</v>
+      </c>
+      <c r="O20">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="P20">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="Q20">
+        <v>2.435842678146111</v>
+      </c>
+      <c r="R20">
+        <v>21.922584103315</v>
+      </c>
+      <c r="S20">
+        <v>0.001544972511353036</v>
+      </c>
+      <c r="T20">
+        <v>0.001544972511353036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.885213</v>
+      </c>
+      <c r="I21">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J21">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.398467</v>
+      </c>
+      <c r="O21">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P21">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q21">
+        <v>0.1277402409412222</v>
+      </c>
+      <c r="R21">
+        <v>1.149662168471</v>
+      </c>
+      <c r="S21">
+        <v>8.102130840322027E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.102130840322025E-05</v>
       </c>
     </row>
   </sheetData>
